--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Previously Relocated Items/Security/Slave/PROGRAMS/Damalas SEAWISE/WP4 Effects of Fishing/Extraction/Nadia Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B73FF3-F648-DE45-954D-EE208DFD037F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158897F-0131-4135-95BF-2DF50BE13905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1160" windowWidth="37260" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2529,7 +2529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="404">
   <si>
     <t>SearchID</t>
   </si>
@@ -3590,22 +3590,7 @@
     <t>4.3</t>
   </si>
   <si>
-    <t>GAM</t>
-  </si>
-  <si>
-    <t>invertebrates</t>
-  </si>
-  <si>
-    <t>presence of large strands of corals</t>
-  </si>
-  <si>
-    <t>Based on 4 experimental surveys carried out between 1985 and 2008, we obtained quanti- tative data on the fauna associated with live coral stands. We show that species richness of invertebrates and crustaceans, as well as abundance and biomass of crustaceans, is higher in areas with large stands of the coral.   Our results show that higher densities of coral support higher crustacean species richness, abundance and biomass and are significantly related to overall invertebrate richness. Some indicators for species of commercial interest are also significantly related to higher density of the coral.</t>
-  </si>
-  <si>
     <t>significant</t>
-  </si>
-  <si>
-    <t>The paper reports on the positive efefcts of larger strands Isidella corals on other benthos, and then by referring to the lack of these corals in heavily trawled area) it concludes 'Trawling over I. elongata facies causes direct impacts on the biological assemblages by removing the habitat-forming corals, decreasing invertebrate species diversity and negatively affecting fisheries production in the long term.'' The paper does not actually quantify the impact of fishing on Isidella but compares the differences in community structur of the communities associated with Isidella!</t>
   </si>
   <si>
     <t xml:space="preserve">Multivariate analysis of community composition could not discriminate between lightly trawled and heavily trawled areas. The factors that best explained the benthic communities’ distribution were depth + salinity.  Thus, there was no significant effect of the magnitude of trawling disturbance in the benthic community assemblages. The trawl intensity gradient also followed the depth gradient, and all 3 factors (depth, salinity and trawl activity) were so closely inter-correlated that it was not possible to sepa- rate the possible effect of the trawl intensity on the benthic communities.
@@ -3622,9 +3607,6 @@
   </si>
   <si>
     <t>fishing hours</t>
-  </si>
-  <si>
-    <t>invertebrate biomass</t>
   </si>
   <si>
     <t>Multivariates part of the paper</t>
@@ -3775,6 +3757,9 @@
   </si>
   <si>
     <t>MDS _ BIOENV</t>
+  </si>
+  <si>
+    <t>The paper reports on the positive effects of larger strands Isidella corals on other benthos, and then by referring to the lack of these corals in heavily trawled area) it concludes 'Trawling over I. elongata facies causes direct impacts on the biological assemblages by removing the habitat-forming corals, decreasing invertebrate species diversity and negatively affecting fisheries production in the long term.'' The paper does not actually quantify the impact of fishing on Isidella but compares the differences in community structur of the communities associated with Isidella!</t>
   </si>
 </sst>
 </file>
@@ -4377,25 +4362,25 @@
   <dimension ref="A1:AX20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK15" sqref="AK15"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4"/>
   <cols>
-    <col min="19" max="19" width="18.1640625" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
     <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="30" max="30" width="24.83203125" customWidth="1"/>
+    <col min="30" max="30" width="24.77734375" customWidth="1"/>
     <col min="34" max="35" width="17.6640625" customWidth="1"/>
     <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.1640625" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" customWidth="1"/>
     <col min="38" max="38" width="17.6640625" customWidth="1"/>
     <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="41" width="15.83203125" customWidth="1"/>
-    <col min="42" max="42" width="15.5" customWidth="1"/>
-    <col min="46" max="46" width="15.1640625" customWidth="1"/>
+    <col min="40" max="41" width="15.77734375" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" customWidth="1"/>
     <col min="47" max="47" width="18.6640625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
@@ -4466,7 +4451,7 @@
       <c r="AW1" s="26"/>
       <c r="AX1" s="26"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="48">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.2">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4689,10 +4674,10 @@
         <v>216</v>
       </c>
       <c r="Y3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Z3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -4704,10 +4689,10 @@
         <v>3</v>
       </c>
       <c r="AD3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AE3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AF3" t="s">
         <v>352</v>
@@ -4728,7 +4713,7 @@
         <v>233</v>
       </c>
       <c r="AO3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -4740,7 +4725,7 @@
         <v>179</v>
       </c>
       <c r="AU3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AV3" t="s">
         <v>113</v>
@@ -4749,7 +4734,7 @@
         <v>208</v>
       </c>
       <c r="AX3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -4882,7 +4867,7 @@
         <v>113</v>
       </c>
       <c r="Y5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -4894,10 +4879,10 @@
         <v>3</v>
       </c>
       <c r="AD5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AE5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AF5" t="s">
         <v>352</v>
@@ -4915,7 +4900,7 @@
         <v>233</v>
       </c>
       <c r="AO5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -4927,7 +4912,7 @@
         <v>176</v>
       </c>
       <c r="AU5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AV5" t="s">
         <v>200</v>
@@ -4936,7 +4921,7 @@
         <v>208</v>
       </c>
       <c r="AX5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -5010,7 +4995,7 @@
         <v>113</v>
       </c>
       <c r="Y6" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -5022,10 +5007,10 @@
         <v>3</v>
       </c>
       <c r="AD6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AE6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AF6" t="s">
         <v>352</v>
@@ -5043,7 +5028,7 @@
         <v>233</v>
       </c>
       <c r="AO6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -5055,7 +5040,7 @@
         <v>176</v>
       </c>
       <c r="AU6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AV6" t="s">
         <v>199</v>
@@ -5064,7 +5049,7 @@
         <v>208</v>
       </c>
       <c r="AX6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -5138,7 +5123,7 @@
         <v>113</v>
       </c>
       <c r="Y7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -5150,10 +5135,10 @@
         <v>3</v>
       </c>
       <c r="AD7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AE7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AF7" t="s">
         <v>352</v>
@@ -5171,7 +5156,7 @@
         <v>233</v>
       </c>
       <c r="AO7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5183,7 +5168,7 @@
         <v>176</v>
       </c>
       <c r="AU7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AV7" t="s">
         <v>199</v>
@@ -5192,7 +5177,7 @@
         <v>208</v>
       </c>
       <c r="AX7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -5325,10 +5310,10 @@
         <v>72</v>
       </c>
       <c r="Y9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Z9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -5340,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="AD9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AF9" t="s">
         <v>352</v>
@@ -5358,7 +5343,7 @@
         <v>233</v>
       </c>
       <c r="AO9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -5367,7 +5352,7 @@
         <v>239</v>
       </c>
       <c r="AU9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AV9" t="s">
         <v>113</v>
@@ -5376,7 +5361,7 @@
         <v>208</v>
       </c>
       <c r="AX9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -5450,10 +5435,10 @@
         <v>72</v>
       </c>
       <c r="Y10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Z10" s="16" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5465,7 +5450,7 @@
         <v>3</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AF10" t="s">
         <v>352</v>
@@ -5486,7 +5471,7 @@
         <v>233</v>
       </c>
       <c r="AO10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
@@ -5495,7 +5480,7 @@
         <v>239</v>
       </c>
       <c r="AU10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AV10" t="s">
         <v>113</v>
@@ -5504,7 +5489,7 @@
         <v>208</v>
       </c>
       <c r="AX10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -5578,10 +5563,10 @@
         <v>72</v>
       </c>
       <c r="Y11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Z11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5593,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AF11" t="s">
         <v>352</v>
@@ -5611,7 +5596,7 @@
         <v>233</v>
       </c>
       <c r="AO11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -5620,7 +5605,7 @@
         <v>239</v>
       </c>
       <c r="AU11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AV11" t="s">
         <v>113</v>
@@ -5629,7 +5614,7 @@
         <v>208</v>
       </c>
       <c r="AX11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -5703,10 +5688,10 @@
         <v>113</v>
       </c>
       <c r="Y12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Z12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5718,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="AD12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF12" t="s">
         <v>352</v>
@@ -5739,7 +5724,7 @@
         <v>233</v>
       </c>
       <c r="AO12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -5748,7 +5733,7 @@
         <v>239</v>
       </c>
       <c r="AU12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AV12" t="s">
         <v>206</v>
@@ -5757,7 +5742,7 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="13" customFormat="1">
@@ -5831,10 +5816,10 @@
         <v>113</v>
       </c>
       <c r="Y13" s="13" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AA13" s="13">
         <v>2</v>
@@ -5846,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF13" s="13" t="s">
         <v>352</v>
@@ -5864,7 +5849,7 @@
         <v>233</v>
       </c>
       <c r="AO13" s="13" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AQ13" s="13" t="s">
         <v>164</v>
@@ -5873,7 +5858,7 @@
         <v>239</v>
       </c>
       <c r="AU13" s="13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AV13" s="13" t="s">
         <v>113</v>
@@ -5882,7 +5867,7 @@
         <v>208</v>
       </c>
       <c r="AX13" s="13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -5956,10 +5941,10 @@
         <v>113</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Z14" s="24" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AA14" s="13">
         <v>2</v>
@@ -5971,7 +5956,7 @@
         <v>3</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AF14" t="s">
         <v>352</v>
@@ -5989,7 +5974,7 @@
         <v>233</v>
       </c>
       <c r="AO14" s="13" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -5998,7 +5983,7 @@
         <v>239</v>
       </c>
       <c r="AU14" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AV14" t="s">
         <v>200</v>
@@ -6007,7 +5992,7 @@
         <v>208</v>
       </c>
       <c r="AX14" s="13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -6069,7 +6054,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="38" customHeight="1">
+    <row r="16" spans="1:50" ht="37.950000000000003" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>314</v>
       </c>
@@ -6140,10 +6125,10 @@
         <v>113</v>
       </c>
       <c r="Y16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Z16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6155,10 +6140,10 @@
         <v>3</v>
       </c>
       <c r="AD16" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE16" t="s">
         <v>359</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>365</v>
       </c>
       <c r="AF16" t="s">
         <v>352</v>
@@ -6179,7 +6164,7 @@
         <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -6188,7 +6173,7 @@
         <v>239</v>
       </c>
       <c r="AU16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AV16" t="s">
         <v>206</v>
@@ -6197,10 +6182,10 @@
         <v>210</v>
       </c>
       <c r="AX16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" ht="38" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="37.950000000000003" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>314</v>
       </c>
@@ -6271,10 +6256,10 @@
         <v>113</v>
       </c>
       <c r="Y17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Z17" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6286,10 +6271,10 @@
         <v>3</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AE17" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AF17" t="s">
         <v>352</v>
@@ -6310,7 +6295,7 @@
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6319,7 +6304,7 @@
         <v>239</v>
       </c>
       <c r="AU17" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
@@ -6328,7 +6313,7 @@
         <v>210</v>
       </c>
       <c r="AX17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -6386,89 +6371,11 @@
       <c r="R18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="S18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" t="s">
-        <v>45</v>
-      </c>
-      <c r="U18" t="s">
-        <v>59</v>
-      </c>
-      <c r="V18" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA18">
-        <v>2</v>
-      </c>
-      <c r="AB18">
-        <v>2</v>
-      </c>
-      <c r="AC18">
-        <v>3</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>356</v>
-      </c>
       <c r="AE18" s="11" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="AF18" t="s">
         <v>352</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>354</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>364</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -6724,10 +6631,10 @@
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="19" max="19" width="32.1640625" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
     <col min="32" max="32" width="14.6640625" customWidth="1"/>
@@ -6800,7 +6707,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="96">
+    <row r="2" spans="1:50" ht="86.4">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -6952,7 +6859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16">
+    <row r="3" spans="1:50">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -7009,7 +6916,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16">
+    <row r="4" spans="1:50">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -7066,7 +6973,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="16">
+    <row r="5" spans="1:50">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -7122,7 +7029,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="16">
+    <row r="6" spans="1:50">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -7167,7 +7074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16">
+    <row r="7" spans="1:50">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -7209,7 +7116,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16">
+    <row r="8" spans="1:50">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -7247,7 +7154,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16">
+    <row r="9" spans="1:50">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -7804,35 +7711,35 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" customWidth="1"/>
-    <col min="19" max="19" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="26.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
     <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.83203125" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" customWidth="1"/>
     <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" customWidth="1"/>
+    <col min="28" max="28" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.109375" customWidth="1"/>
     <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="33" max="33" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -7882,7 +7789,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="48">
+    <row r="2" spans="1:33" ht="43.2">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -7983,7 +7890,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="16">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -8049,7 +7956,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="16">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -8100,7 +8007,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="16">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -8154,7 +8061,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -8196,7 +8103,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -8241,7 +8148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="16">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8279,7 +8186,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="16">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -8714,9 +8621,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8834,25 +8744,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8874,9 +8774,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158897F-0131-4135-95BF-2DF50BE13905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F27567-39A9-44CF-A1D3-6E4FC8D45B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$20</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -3696,18 +3697,6 @@
     <t>using VMS data for SAR and calculating 3 benthic impact indicators</t>
   </si>
   <si>
-    <t>beam trawl vs pulse trawl</t>
-  </si>
-  <si>
-    <t>reduction in mean longevity</t>
-  </si>
-  <si>
-    <t>reduction in biomass affected by trawling LL1</t>
-  </si>
-  <si>
-    <t>reduction in biomass affected by trawling PD</t>
-  </si>
-  <si>
     <t>reduced benthic impacts following the switch from beam to pulse</t>
   </si>
   <si>
@@ -3760,6 +3749,18 @@
   </si>
   <si>
     <t>The paper reports on the positive effects of larger strands Isidella corals on other benthos, and then by referring to the lack of these corals in heavily trawled area) it concludes 'Trawling over I. elongata facies causes direct impacts on the biological assemblages by removing the habitat-forming corals, decreasing invertebrate species diversity and negatively affecting fisheries production in the long term.'' The paper does not actually quantify the impact of fishing on Isidella but compares the differences in community structur of the communities associated with Isidella!</t>
+  </si>
+  <si>
+    <t>pulse trawl vs beam trawl</t>
+  </si>
+  <si>
+    <t>mean longevity L2</t>
+  </si>
+  <si>
+    <t>proportional biomass affected by trawling L1</t>
+  </si>
+  <si>
+    <t>biomass relative to carrying capacity PD</t>
   </si>
 </sst>
 </file>
@@ -4361,27 +4362,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AK5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
   <cols>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="30" max="30" width="24.77734375" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="41" width="15.77734375" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" customWidth="1"/>
+    <col min="24" max="25" width="32.6328125" customWidth="1"/>
+    <col min="30" max="30" width="24.81640625" customWidth="1"/>
+    <col min="34" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1"/>
+    <col min="37" max="37" width="19.08984375" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" customWidth="1"/>
+    <col min="39" max="39" width="14.36328125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.08984375" customWidth="1"/>
+    <col min="47" max="47" width="18.6328125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4451,7 +4452,7 @@
       <c r="AW1" s="26"/>
       <c r="AX1" s="26"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.2">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>233</v>
       </c>
       <c r="AO5" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -4912,16 +4913,16 @@
         <v>176</v>
       </c>
       <c r="AU5" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="AV5" t="s">
         <v>200</v>
       </c>
       <c r="AW5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -5028,7 +5029,7 @@
         <v>233</v>
       </c>
       <c r="AO6" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -5040,16 +5041,16 @@
         <v>176</v>
       </c>
       <c r="AU6" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="AV6" t="s">
         <v>199</v>
       </c>
       <c r="AW6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -5156,7 +5157,7 @@
         <v>233</v>
       </c>
       <c r="AO7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5168,16 +5169,16 @@
         <v>176</v>
       </c>
       <c r="AU7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="AV7" t="s">
         <v>199</v>
       </c>
       <c r="AW7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -5352,7 +5353,7 @@
         <v>239</v>
       </c>
       <c r="AU9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AV9" t="s">
         <v>113</v>
@@ -5480,7 +5481,7 @@
         <v>239</v>
       </c>
       <c r="AU10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AV10" t="s">
         <v>113</v>
@@ -5605,7 +5606,7 @@
         <v>239</v>
       </c>
       <c r="AU11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AV11" t="s">
         <v>113</v>
@@ -5941,10 +5942,10 @@
         <v>113</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Z14" s="24" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AA14" s="13">
         <v>2</v>
@@ -5956,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AF14" t="s">
         <v>352</v>
@@ -5974,7 +5975,7 @@
         <v>233</v>
       </c>
       <c r="AO14" s="13" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -5983,7 +5984,7 @@
         <v>239</v>
       </c>
       <c r="AU14" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AV14" t="s">
         <v>200</v>
@@ -6054,7 +6055,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="37.950000000000003" customHeight="1">
+    <row r="16" spans="1:50" ht="38" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>314</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>355</v>
       </c>
       <c r="Z16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6185,7 +6186,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="37.950000000000003" customHeight="1">
+    <row r="17" spans="1:50" ht="38" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>314</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>355</v>
       </c>
       <c r="Z17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6372,7 +6373,7 @@
         <v>84</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AF18" t="s">
         <v>352</v>
@@ -6631,14 +6632,14 @@
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -6707,7 +6708,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4">
+    <row r="2" spans="1:50" ht="87">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -7711,35 +7712,35 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.453125" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6328125" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="12.44140625" customWidth="1"/>
+    <col min="28" max="28" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.08984375" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -7789,7 +7790,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2">
+    <row r="2" spans="1:33" ht="43.5">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -8621,17 +8622,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -8744,21 +8742,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65236687-9026-4C91-8D55-A255BB448CAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -8774,16 +8782,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F27567-39A9-44CF-A1D3-6E4FC8D45B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DE1599-0B25-4CAE-B432-CF35943F54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2530,7 +2530,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="404">
   <si>
     <t>SearchID</t>
   </si>
@@ -3994,7 +3994,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4008,24 +4008,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
@@ -4363,10 +4360,10 @@
   <dimension ref="A1:AX20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AK5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
+      <selection pane="bottomRight" activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -4387,70 +4384,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="28" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="29" t="s">
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="31" t="s">
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="26" t="s">
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5">
       <c r="A2" s="2" t="s">
@@ -4605,7 +4602,7 @@
       </c>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>242</v>
       </c>
       <c r="B3" t="s">
@@ -4739,7 +4736,7 @@
       </c>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>253</v>
       </c>
       <c r="B4" t="s">
@@ -4798,7 +4795,7 @@
       </c>
     </row>
     <row r="5" spans="1:50">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>263</v>
       </c>
       <c r="B5" t="s">
@@ -4926,7 +4923,7 @@
       </c>
     </row>
     <row r="6" spans="1:50">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>263</v>
       </c>
       <c r="B6" t="s">
@@ -5054,7 +5051,7 @@
       </c>
     </row>
     <row r="7" spans="1:50">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>263</v>
       </c>
       <c r="B7" t="s">
@@ -5182,7 +5179,7 @@
       </c>
     </row>
     <row r="8" spans="1:50">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>272</v>
       </c>
       <c r="B8" t="s">
@@ -5241,7 +5238,7 @@
       </c>
     </row>
     <row r="9" spans="1:50">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B9" t="s">
@@ -5335,7 +5332,10 @@
         <v>113</v>
       </c>
       <c r="AH9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>148</v>
       </c>
       <c r="AK9" t="s">
         <v>148</v>
@@ -5366,7 +5366,7 @@
       </c>
     </row>
     <row r="10" spans="1:50">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B10" t="s">
@@ -5438,7 +5438,7 @@
       <c r="Y10" t="s">
         <v>366</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" s="14" t="s">
         <v>368</v>
       </c>
       <c r="AA10">
@@ -5450,7 +5450,7 @@
       <c r="AC10">
         <v>3</v>
       </c>
-      <c r="AD10" s="17" t="s">
+      <c r="AD10" s="15" t="s">
         <v>372</v>
       </c>
       <c r="AF10" t="s">
@@ -5460,10 +5460,10 @@
         <v>113</v>
       </c>
       <c r="AH10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI10" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AK10" t="s">
         <v>148</v>
@@ -5494,7 +5494,7 @@
       </c>
     </row>
     <row r="11" spans="1:50">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B11" t="s">
@@ -5578,7 +5578,7 @@
       <c r="AC11">
         <v>3</v>
       </c>
-      <c r="AD11" s="17" t="s">
+      <c r="AD11" s="15" t="s">
         <v>372</v>
       </c>
       <c r="AF11" t="s">
@@ -5588,7 +5588,10 @@
         <v>113</v>
       </c>
       <c r="AH11" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>148</v>
       </c>
       <c r="AK11" t="s">
         <v>148</v>
@@ -5619,7 +5622,7 @@
       </c>
     </row>
     <row r="12" spans="1:50">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B12" t="s">
@@ -5746,133 +5749,133 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="13" customFormat="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:50">
+      <c r="A13" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13">
         <v>2019</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>291</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" t="s">
         <v>292</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" t="s">
         <v>293</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" t="s">
         <v>294</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" t="s">
         <v>295</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" t="s">
         <v>296</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" t="s">
         <v>248</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" t="s">
         <v>297</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" t="s">
         <v>251</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" t="s">
         <v>252</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" t="s">
         <v>271</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" t="s">
         <v>31</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" t="s">
         <v>42</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="13" t="s">
+      <c r="W13" t="s">
         <v>48</v>
       </c>
-      <c r="X13" s="13" t="s">
+      <c r="X13" t="s">
         <v>113</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="Y13" t="s">
         <v>377</v>
       </c>
-      <c r="Z13" s="13" t="s">
+      <c r="Z13" t="s">
         <v>378</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13">
         <v>2</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13">
         <v>2</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13">
         <v>3</v>
       </c>
-      <c r="AD13" s="13" t="s">
+      <c r="AD13" t="s">
         <v>376</v>
       </c>
-      <c r="AF13" s="13" t="s">
+      <c r="AF13" t="s">
         <v>352</v>
       </c>
-      <c r="AG13" s="13" t="s">
+      <c r="AG13" t="s">
         <v>113</v>
       </c>
-      <c r="AH13" s="13" t="s">
+      <c r="AH13" t="s">
         <v>120</v>
       </c>
-      <c r="AK13" s="13" t="s">
+      <c r="AK13" t="s">
         <v>134</v>
       </c>
-      <c r="AM13" s="13" t="s">
+      <c r="AM13" t="s">
         <v>233</v>
       </c>
-      <c r="AO13" s="13" t="s">
+      <c r="AO13" t="s">
         <v>358</v>
       </c>
-      <c r="AQ13" s="13" t="s">
+      <c r="AQ13" t="s">
         <v>164</v>
       </c>
-      <c r="AR13" s="13" t="s">
+      <c r="AR13" t="s">
         <v>239</v>
       </c>
-      <c r="AU13" s="13" t="s">
+      <c r="AU13" t="s">
         <v>379</v>
       </c>
-      <c r="AV13" s="13" t="s">
+      <c r="AV13" t="s">
         <v>113</v>
       </c>
-      <c r="AW13" s="13" t="s">
+      <c r="AW13" t="s">
         <v>208</v>
       </c>
-      <c r="AX13" s="13" t="s">
+      <c r="AX13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:50">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>298</v>
       </c>
       <c r="B14" t="s">
@@ -5941,22 +5944,22 @@
       <c r="X14" t="s">
         <v>113</v>
       </c>
-      <c r="Y14" s="13" t="s">
+      <c r="Y14" t="s">
         <v>390</v>
       </c>
-      <c r="Z14" s="24" t="s">
+      <c r="Z14" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14">
         <v>2</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AB14">
         <v>2</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AD14" s="13" t="s">
+      <c r="AD14" t="s">
         <v>391</v>
       </c>
       <c r="AF14" t="s">
@@ -5974,7 +5977,7 @@
       <c r="AM14" t="s">
         <v>233</v>
       </c>
-      <c r="AO14" s="13" t="s">
+      <c r="AO14" t="s">
         <v>392</v>
       </c>
       <c r="AQ14" t="s">
@@ -5983,7 +5986,7 @@
       <c r="AR14" t="s">
         <v>239</v>
       </c>
-      <c r="AU14" s="13" t="s">
+      <c r="AU14" t="s">
         <v>393</v>
       </c>
       <c r="AV14" t="s">
@@ -5992,12 +5995,12 @@
       <c r="AW14" t="s">
         <v>208</v>
       </c>
-      <c r="AX14" s="13" t="s">
+      <c r="AX14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:50">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>307</v>
       </c>
       <c r="B15" t="s">
@@ -6056,7 +6059,7 @@
       </c>
     </row>
     <row r="16" spans="1:50" ht="38" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>314</v>
       </c>
       <c r="B16" t="s">
@@ -6140,7 +6143,7 @@
       <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AD16" s="12" t="s">
+      <c r="AD16" s="11" t="s">
         <v>354</v>
       </c>
       <c r="AE16" t="s">
@@ -6187,7 +6190,7 @@
       </c>
     </row>
     <row r="17" spans="1:50" ht="38" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>314</v>
       </c>
       <c r="B17" t="s">
@@ -6271,7 +6274,7 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AD17" s="14" t="s">
+      <c r="AD17" s="12" t="s">
         <v>362</v>
       </c>
       <c r="AE17" t="s">
@@ -6318,7 +6321,7 @@
       </c>
     </row>
     <row r="18" spans="1:50">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>323</v>
       </c>
       <c r="B18" t="s">
@@ -6369,10 +6372,10 @@
       <c r="Q18" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" t="s">
         <v>84</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AE18" s="10" t="s">
         <v>399</v>
       </c>
       <c r="AF18" t="s">
@@ -6380,7 +6383,7 @@
       </c>
     </row>
     <row r="19" spans="1:50">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>333</v>
       </c>
       <c r="B19" t="s">
@@ -6439,7 +6442,7 @@
       </c>
     </row>
     <row r="20" spans="1:50">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>343</v>
       </c>
       <c r="B20" t="s">
@@ -6626,7 +6629,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="U2" workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
@@ -6643,70 +6646,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="28" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="29" t="s">
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87">
       <c r="A2" s="2" t="s">
@@ -7028,7 +7031,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50">
       <c r="R6" t="s">
@@ -7416,7 +7419,7 @@
       </c>
     </row>
     <row r="19" spans="34:48">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7619,7 +7622,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51">
+    <row r="33" spans="34:48">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -7639,7 +7642,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51">
+    <row r="34" spans="34:48">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -7652,9 +7655,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
-    </row>
-    <row r="35" spans="34:51">
+    </row>
+    <row r="35" spans="34:48">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51">
+    <row r="36" spans="34:48">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -7676,10 +7678,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51">
+    <row r="37" spans="34:48">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51">
+    <row r="38" spans="34:48">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -7744,51 +7746,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="28" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="25" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="26" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
     </row>
     <row r="2" spans="1:33" ht="43.5">
       <c r="A2" s="2" t="s">
@@ -8311,7 +8313,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -8628,6 +8630,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -8741,31 +8752,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65236687-9026-4C91-8D55-A255BB448CAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8779,12 +8789,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Papadopoulou.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DE1599-0B25-4CAE-B432-CF35943F54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052A54E9-F996-451A-8A44-8CC44F933360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4360,10 +4360,10 @@
   <dimension ref="A1:AX20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AC13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU9" sqref="AU9"/>
+      <selection pane="bottomRight" activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -5844,9 +5844,9 @@
         <v>113</v>
       </c>
       <c r="AH13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI13" t="s">
         <v>134</v>
       </c>
       <c r="AM13" t="s">
@@ -8630,15 +8630,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -8752,30 +8743,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65236687-9026-4C91-8D55-A255BB448CAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8789,4 +8781,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>